--- a/inst/extdata/BeersFlashProfile.xlsx
+++ b/inst/extdata/BeersFlashProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/herve/Dropbox/DistatisR.1.1.0/DistatisR/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{30610E4C-965E-C449-B435-4E23E851E1EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{04CD08CE-B6EF-A047-86A7-358E597AA063}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="31540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57160" yWindow="2540" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>J1-alcohol</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Beers</t>
+  </si>
+  <si>
+    <t>J6-sour</t>
   </si>
 </sst>
 </file>
@@ -214,7 +217,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="297">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment wrapText="1"/>
@@ -321,12 +324,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
@@ -1102,6 +1099,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1425,7 +1425,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1532,804 +1534,804 @@
       <c r="AH1" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="36" t="s">
+      <c r="AI1" s="295" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="37" t="s">
+      <c r="AK1" s="295" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="45">
-        <v>1</v>
-      </c>
-      <c r="C2" s="52">
-        <v>1</v>
-      </c>
-      <c r="D2" s="59">
-        <v>3</v>
-      </c>
-      <c r="E2" s="66">
-        <v>1</v>
-      </c>
-      <c r="F2" s="73">
-        <v>5</v>
-      </c>
-      <c r="G2" s="80">
-        <v>4</v>
-      </c>
-      <c r="H2" s="87">
-        <v>2</v>
-      </c>
-      <c r="I2" s="94">
-        <v>7</v>
-      </c>
-      <c r="J2" s="101">
-        <v>4</v>
-      </c>
-      <c r="K2" s="108">
-        <v>5</v>
-      </c>
-      <c r="L2" s="115">
-        <v>7</v>
-      </c>
-      <c r="M2" s="122">
-        <v>6</v>
-      </c>
-      <c r="N2" s="129">
-        <v>3</v>
-      </c>
-      <c r="O2" s="136">
-        <v>6</v>
-      </c>
-      <c r="P2" s="143">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="150">
-        <v>7</v>
-      </c>
-      <c r="R2" s="157">
-        <v>1</v>
-      </c>
-      <c r="S2" s="164">
-        <v>2</v>
-      </c>
-      <c r="T2" s="171">
-        <v>1</v>
-      </c>
-      <c r="U2" s="178">
-        <v>1</v>
-      </c>
-      <c r="V2" s="185">
-        <v>1</v>
-      </c>
-      <c r="W2" s="192">
-        <v>6</v>
-      </c>
-      <c r="X2" s="199">
-        <v>7</v>
-      </c>
-      <c r="Y2" s="206">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="213">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="220">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="227">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="234">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="241">
-        <v>5</v>
-      </c>
-      <c r="AE2" s="248">
-        <v>3</v>
-      </c>
-      <c r="AF2" s="255">
-        <v>7</v>
-      </c>
-      <c r="AG2" s="262">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="269">
-        <v>6</v>
-      </c>
-      <c r="AI2" s="276">
-        <v>5</v>
-      </c>
-      <c r="AJ2" s="283">
-        <v>3</v>
-      </c>
-      <c r="AK2" s="290">
+      <c r="B2" s="43">
+        <v>1</v>
+      </c>
+      <c r="C2" s="50">
+        <v>1</v>
+      </c>
+      <c r="D2" s="57">
+        <v>3</v>
+      </c>
+      <c r="E2" s="64">
+        <v>1</v>
+      </c>
+      <c r="F2" s="71">
+        <v>5</v>
+      </c>
+      <c r="G2" s="78">
+        <v>4</v>
+      </c>
+      <c r="H2" s="85">
+        <v>2</v>
+      </c>
+      <c r="I2" s="92">
+        <v>7</v>
+      </c>
+      <c r="J2" s="99">
+        <v>4</v>
+      </c>
+      <c r="K2" s="106">
+        <v>5</v>
+      </c>
+      <c r="L2" s="113">
+        <v>7</v>
+      </c>
+      <c r="M2" s="120">
+        <v>6</v>
+      </c>
+      <c r="N2" s="127">
+        <v>3</v>
+      </c>
+      <c r="O2" s="134">
+        <v>6</v>
+      </c>
+      <c r="P2" s="141">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="148">
+        <v>7</v>
+      </c>
+      <c r="R2" s="155">
+        <v>1</v>
+      </c>
+      <c r="S2" s="162">
+        <v>2</v>
+      </c>
+      <c r="T2" s="169">
+        <v>1</v>
+      </c>
+      <c r="U2" s="176">
+        <v>1</v>
+      </c>
+      <c r="V2" s="183">
+        <v>1</v>
+      </c>
+      <c r="W2" s="190">
+        <v>6</v>
+      </c>
+      <c r="X2" s="197">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="204">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="211">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="218">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="225">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="232">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="239">
+        <v>5</v>
+      </c>
+      <c r="AE2" s="246">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="253">
+        <v>7</v>
+      </c>
+      <c r="AG2" s="260">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="267">
+        <v>6</v>
+      </c>
+      <c r="AI2" s="274">
+        <v>5</v>
+      </c>
+      <c r="AJ2" s="281">
+        <v>3</v>
+      </c>
+      <c r="AK2" s="288">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="46">
-        <v>2</v>
-      </c>
-      <c r="C3" s="53">
-        <v>5</v>
-      </c>
-      <c r="D3" s="60">
-        <v>1</v>
-      </c>
-      <c r="E3" s="67">
-        <v>4</v>
-      </c>
-      <c r="F3" s="74">
-        <v>7</v>
-      </c>
-      <c r="G3" s="81">
-        <v>7</v>
-      </c>
-      <c r="H3" s="88">
-        <v>1</v>
-      </c>
-      <c r="I3" s="95">
-        <v>6</v>
-      </c>
-      <c r="J3" s="102">
-        <v>5</v>
-      </c>
-      <c r="K3" s="109">
-        <v>2</v>
-      </c>
-      <c r="L3" s="116">
-        <v>6</v>
-      </c>
-      <c r="M3" s="123">
-        <v>7</v>
-      </c>
-      <c r="N3" s="130">
-        <v>7</v>
-      </c>
-      <c r="O3" s="137">
-        <v>7</v>
-      </c>
-      <c r="P3" s="144">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="151">
-        <v>6</v>
-      </c>
-      <c r="R3" s="158">
-        <v>3</v>
-      </c>
-      <c r="S3" s="165">
-        <v>1</v>
-      </c>
-      <c r="T3" s="172">
-        <v>5</v>
-      </c>
-      <c r="U3" s="179">
-        <v>3</v>
-      </c>
-      <c r="V3" s="186">
-        <v>2</v>
-      </c>
-      <c r="W3" s="193">
-        <v>7</v>
-      </c>
-      <c r="X3" s="200">
-        <v>6</v>
-      </c>
-      <c r="Y3" s="207">
-        <v>7</v>
-      </c>
-      <c r="Z3" s="214">
-        <v>5</v>
-      </c>
-      <c r="AA3" s="221">
-        <v>7</v>
-      </c>
-      <c r="AB3" s="228">
-        <v>2</v>
-      </c>
-      <c r="AC3" s="235">
-        <v>2</v>
-      </c>
-      <c r="AD3" s="242">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="249">
-        <v>5</v>
-      </c>
-      <c r="AF3" s="256">
-        <v>6</v>
-      </c>
-      <c r="AG3" s="263">
-        <v>4</v>
-      </c>
-      <c r="AH3" s="270">
-        <v>7</v>
-      </c>
-      <c r="AI3" s="277">
-        <v>7</v>
-      </c>
-      <c r="AJ3" s="284">
-        <v>2</v>
-      </c>
-      <c r="AK3" s="291">
+      <c r="B3" s="44">
+        <v>2</v>
+      </c>
+      <c r="C3" s="51">
+        <v>5</v>
+      </c>
+      <c r="D3" s="58">
+        <v>1</v>
+      </c>
+      <c r="E3" s="65">
+        <v>4</v>
+      </c>
+      <c r="F3" s="72">
+        <v>7</v>
+      </c>
+      <c r="G3" s="79">
+        <v>7</v>
+      </c>
+      <c r="H3" s="86">
+        <v>1</v>
+      </c>
+      <c r="I3" s="93">
+        <v>6</v>
+      </c>
+      <c r="J3" s="100">
+        <v>5</v>
+      </c>
+      <c r="K3" s="107">
+        <v>2</v>
+      </c>
+      <c r="L3" s="114">
+        <v>6</v>
+      </c>
+      <c r="M3" s="121">
+        <v>7</v>
+      </c>
+      <c r="N3" s="128">
+        <v>7</v>
+      </c>
+      <c r="O3" s="135">
+        <v>7</v>
+      </c>
+      <c r="P3" s="142">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="149">
+        <v>6</v>
+      </c>
+      <c r="R3" s="156">
+        <v>3</v>
+      </c>
+      <c r="S3" s="163">
+        <v>1</v>
+      </c>
+      <c r="T3" s="170">
+        <v>5</v>
+      </c>
+      <c r="U3" s="177">
+        <v>3</v>
+      </c>
+      <c r="V3" s="184">
+        <v>2</v>
+      </c>
+      <c r="W3" s="191">
+        <v>7</v>
+      </c>
+      <c r="X3" s="198">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="205">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="212">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="219">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="226">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="233">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="240">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="247">
+        <v>5</v>
+      </c>
+      <c r="AF3" s="254">
+        <v>6</v>
+      </c>
+      <c r="AG3" s="261">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="268">
+        <v>7</v>
+      </c>
+      <c r="AI3" s="275">
+        <v>7</v>
+      </c>
+      <c r="AJ3" s="282">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="289">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="47">
-        <v>3</v>
-      </c>
-      <c r="C4" s="54">
-        <v>6</v>
-      </c>
-      <c r="D4" s="61">
-        <v>4</v>
-      </c>
-      <c r="E4" s="68">
-        <v>6</v>
-      </c>
-      <c r="F4" s="75">
-        <v>1</v>
-      </c>
-      <c r="G4" s="82">
-        <v>2</v>
-      </c>
-      <c r="H4" s="89">
-        <v>5</v>
-      </c>
-      <c r="I4" s="96">
-        <v>1</v>
-      </c>
-      <c r="J4" s="103">
-        <v>7</v>
-      </c>
-      <c r="K4" s="110">
-        <v>7</v>
-      </c>
-      <c r="L4" s="117">
-        <v>1</v>
-      </c>
-      <c r="M4" s="124">
-        <v>2</v>
-      </c>
-      <c r="N4" s="131">
-        <v>1</v>
-      </c>
-      <c r="O4" s="138">
-        <v>3</v>
-      </c>
-      <c r="P4" s="145">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="152">
-        <v>1</v>
-      </c>
-      <c r="R4" s="159">
-        <v>6</v>
-      </c>
-      <c r="S4" s="166">
-        <v>4</v>
-      </c>
-      <c r="T4" s="173">
-        <v>6</v>
-      </c>
-      <c r="U4" s="180">
-        <v>7</v>
-      </c>
-      <c r="V4" s="187">
-        <v>5</v>
-      </c>
-      <c r="W4" s="194">
-        <v>1</v>
-      </c>
-      <c r="X4" s="201">
-        <v>3</v>
-      </c>
-      <c r="Y4" s="208">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="215">
-        <v>7</v>
-      </c>
-      <c r="AA4" s="222">
-        <v>2</v>
-      </c>
-      <c r="AB4" s="229">
-        <v>3</v>
-      </c>
-      <c r="AC4" s="236">
-        <v>7</v>
-      </c>
-      <c r="AD4" s="243">
-        <v>7</v>
-      </c>
-      <c r="AE4" s="250">
-        <v>7</v>
-      </c>
-      <c r="AF4" s="257">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="264">
-        <v>6</v>
-      </c>
-      <c r="AH4" s="271">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="278">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="285">
-        <v>7</v>
-      </c>
-      <c r="AK4" s="292">
+      <c r="B4" s="45">
+        <v>3</v>
+      </c>
+      <c r="C4" s="52">
+        <v>6</v>
+      </c>
+      <c r="D4" s="59">
+        <v>4</v>
+      </c>
+      <c r="E4" s="66">
+        <v>6</v>
+      </c>
+      <c r="F4" s="73">
+        <v>1</v>
+      </c>
+      <c r="G4" s="80">
+        <v>2</v>
+      </c>
+      <c r="H4" s="87">
+        <v>5</v>
+      </c>
+      <c r="I4" s="94">
+        <v>1</v>
+      </c>
+      <c r="J4" s="101">
+        <v>7</v>
+      </c>
+      <c r="K4" s="108">
+        <v>7</v>
+      </c>
+      <c r="L4" s="115">
+        <v>1</v>
+      </c>
+      <c r="M4" s="122">
+        <v>2</v>
+      </c>
+      <c r="N4" s="129">
+        <v>1</v>
+      </c>
+      <c r="O4" s="136">
+        <v>3</v>
+      </c>
+      <c r="P4" s="143">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="150">
+        <v>1</v>
+      </c>
+      <c r="R4" s="157">
+        <v>6</v>
+      </c>
+      <c r="S4" s="164">
+        <v>4</v>
+      </c>
+      <c r="T4" s="171">
+        <v>6</v>
+      </c>
+      <c r="U4" s="178">
+        <v>7</v>
+      </c>
+      <c r="V4" s="185">
+        <v>5</v>
+      </c>
+      <c r="W4" s="192">
+        <v>1</v>
+      </c>
+      <c r="X4" s="199">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="206">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="213">
+        <v>7</v>
+      </c>
+      <c r="AA4" s="220">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="227">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="234">
+        <v>7</v>
+      </c>
+      <c r="AD4" s="241">
+        <v>7</v>
+      </c>
+      <c r="AE4" s="248">
+        <v>7</v>
+      </c>
+      <c r="AF4" s="255">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="262">
+        <v>6</v>
+      </c>
+      <c r="AH4" s="269">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="276">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="283">
+        <v>7</v>
+      </c>
+      <c r="AK4" s="290">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="48">
-        <v>6</v>
-      </c>
-      <c r="C5" s="55">
-        <v>7</v>
-      </c>
-      <c r="D5" s="62">
-        <v>5</v>
-      </c>
-      <c r="E5" s="69">
-        <v>2</v>
-      </c>
-      <c r="F5" s="76">
-        <v>2</v>
-      </c>
-      <c r="G5" s="83">
-        <v>1</v>
-      </c>
-      <c r="H5" s="90">
-        <v>6</v>
-      </c>
-      <c r="I5" s="97">
-        <v>2</v>
-      </c>
-      <c r="J5" s="104">
-        <v>6</v>
-      </c>
-      <c r="K5" s="111">
-        <v>1</v>
-      </c>
-      <c r="L5" s="118">
-        <v>3</v>
-      </c>
-      <c r="M5" s="125">
-        <v>1</v>
-      </c>
-      <c r="N5" s="132">
-        <v>2</v>
-      </c>
-      <c r="O5" s="139">
-        <v>5</v>
-      </c>
-      <c r="P5" s="146">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="153">
-        <v>4</v>
-      </c>
-      <c r="R5" s="160">
-        <v>7</v>
-      </c>
-      <c r="S5" s="167">
-        <v>3</v>
-      </c>
-      <c r="T5" s="174">
-        <v>3</v>
-      </c>
-      <c r="U5" s="181">
-        <v>6</v>
-      </c>
-      <c r="V5" s="188">
-        <v>6</v>
-      </c>
-      <c r="W5" s="195">
-        <v>2</v>
-      </c>
-      <c r="X5" s="202">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="209">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="216">
-        <v>6</v>
-      </c>
-      <c r="AA5" s="223">
-        <v>3</v>
-      </c>
-      <c r="AB5" s="230">
-        <v>5</v>
-      </c>
-      <c r="AC5" s="237">
-        <v>6</v>
-      </c>
-      <c r="AD5" s="244">
-        <v>2</v>
-      </c>
-      <c r="AE5" s="251">
-        <v>6</v>
-      </c>
-      <c r="AF5" s="258">
-        <v>2</v>
-      </c>
-      <c r="AG5" s="265">
-        <v>7</v>
-      </c>
-      <c r="AH5" s="272">
-        <v>2</v>
-      </c>
-      <c r="AI5" s="279">
-        <v>2</v>
-      </c>
-      <c r="AJ5" s="286">
-        <v>6</v>
-      </c>
-      <c r="AK5" s="293">
+      <c r="B5" s="46">
+        <v>6</v>
+      </c>
+      <c r="C5" s="53">
+        <v>7</v>
+      </c>
+      <c r="D5" s="60">
+        <v>5</v>
+      </c>
+      <c r="E5" s="67">
+        <v>2</v>
+      </c>
+      <c r="F5" s="74">
+        <v>2</v>
+      </c>
+      <c r="G5" s="81">
+        <v>1</v>
+      </c>
+      <c r="H5" s="88">
+        <v>6</v>
+      </c>
+      <c r="I5" s="95">
+        <v>2</v>
+      </c>
+      <c r="J5" s="102">
+        <v>6</v>
+      </c>
+      <c r="K5" s="109">
+        <v>1</v>
+      </c>
+      <c r="L5" s="116">
+        <v>3</v>
+      </c>
+      <c r="M5" s="123">
+        <v>1</v>
+      </c>
+      <c r="N5" s="130">
+        <v>2</v>
+      </c>
+      <c r="O5" s="137">
+        <v>5</v>
+      </c>
+      <c r="P5" s="144">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="151">
+        <v>4</v>
+      </c>
+      <c r="R5" s="158">
+        <v>7</v>
+      </c>
+      <c r="S5" s="165">
+        <v>3</v>
+      </c>
+      <c r="T5" s="172">
+        <v>3</v>
+      </c>
+      <c r="U5" s="179">
+        <v>6</v>
+      </c>
+      <c r="V5" s="186">
+        <v>6</v>
+      </c>
+      <c r="W5" s="193">
+        <v>2</v>
+      </c>
+      <c r="X5" s="200">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="207">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="214">
+        <v>6</v>
+      </c>
+      <c r="AA5" s="221">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="228">
+        <v>5</v>
+      </c>
+      <c r="AC5" s="235">
+        <v>6</v>
+      </c>
+      <c r="AD5" s="242">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="249">
+        <v>6</v>
+      </c>
+      <c r="AF5" s="256">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="263">
+        <v>7</v>
+      </c>
+      <c r="AH5" s="270">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="277">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="284">
+        <v>6</v>
+      </c>
+      <c r="AK5" s="291">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="49">
-        <v>5</v>
-      </c>
-      <c r="C6" s="56">
-        <v>2</v>
-      </c>
-      <c r="D6" s="63">
-        <v>7</v>
-      </c>
-      <c r="E6" s="70">
-        <v>7</v>
-      </c>
-      <c r="F6" s="77">
-        <v>4</v>
-      </c>
-      <c r="G6" s="84">
-        <v>3</v>
-      </c>
-      <c r="H6" s="91">
-        <v>4</v>
-      </c>
-      <c r="I6" s="98">
-        <v>3</v>
-      </c>
-      <c r="J6" s="105">
-        <v>1</v>
-      </c>
-      <c r="K6" s="112">
-        <v>6</v>
-      </c>
-      <c r="L6" s="119">
-        <v>2</v>
-      </c>
-      <c r="M6" s="126">
-        <v>3</v>
-      </c>
-      <c r="N6" s="133">
-        <v>5</v>
-      </c>
-      <c r="O6" s="140">
-        <v>2</v>
-      </c>
-      <c r="P6" s="147">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="154">
-        <v>2</v>
-      </c>
-      <c r="R6" s="161">
-        <v>6</v>
-      </c>
-      <c r="S6" s="168">
-        <v>7</v>
-      </c>
-      <c r="T6" s="175">
-        <v>7</v>
-      </c>
-      <c r="U6" s="182">
-        <v>4</v>
-      </c>
-      <c r="V6" s="189">
-        <v>3</v>
-      </c>
-      <c r="W6" s="196">
-        <v>5</v>
-      </c>
-      <c r="X6" s="203">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="210">
-        <v>3</v>
-      </c>
-      <c r="Z6" s="217">
-        <v>4</v>
-      </c>
-      <c r="AA6" s="224">
-        <v>5</v>
-      </c>
-      <c r="AB6" s="231">
-        <v>6</v>
-      </c>
-      <c r="AC6" s="238">
-        <v>5</v>
-      </c>
-      <c r="AD6" s="245">
-        <v>6</v>
-      </c>
-      <c r="AE6" s="252">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="259">
-        <v>3</v>
-      </c>
-      <c r="AG6" s="266">
-        <v>2</v>
-      </c>
-      <c r="AH6" s="273">
-        <v>5</v>
-      </c>
-      <c r="AI6" s="280">
-        <v>3</v>
-      </c>
-      <c r="AJ6" s="287">
-        <v>5</v>
-      </c>
-      <c r="AK6" s="294">
+      <c r="B6" s="47">
+        <v>5</v>
+      </c>
+      <c r="C6" s="54">
+        <v>2</v>
+      </c>
+      <c r="D6" s="61">
+        <v>7</v>
+      </c>
+      <c r="E6" s="68">
+        <v>7</v>
+      </c>
+      <c r="F6" s="75">
+        <v>4</v>
+      </c>
+      <c r="G6" s="82">
+        <v>3</v>
+      </c>
+      <c r="H6" s="89">
+        <v>4</v>
+      </c>
+      <c r="I6" s="96">
+        <v>3</v>
+      </c>
+      <c r="J6" s="103">
+        <v>1</v>
+      </c>
+      <c r="K6" s="110">
+        <v>6</v>
+      </c>
+      <c r="L6" s="117">
+        <v>2</v>
+      </c>
+      <c r="M6" s="124">
+        <v>3</v>
+      </c>
+      <c r="N6" s="131">
+        <v>5</v>
+      </c>
+      <c r="O6" s="138">
+        <v>2</v>
+      </c>
+      <c r="P6" s="145">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="152">
+        <v>2</v>
+      </c>
+      <c r="R6" s="159">
+        <v>6</v>
+      </c>
+      <c r="S6" s="166">
+        <v>7</v>
+      </c>
+      <c r="T6" s="173">
+        <v>7</v>
+      </c>
+      <c r="U6" s="180">
+        <v>4</v>
+      </c>
+      <c r="V6" s="187">
+        <v>3</v>
+      </c>
+      <c r="W6" s="194">
+        <v>5</v>
+      </c>
+      <c r="X6" s="201">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="208">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="215">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="222">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="229">
+        <v>6</v>
+      </c>
+      <c r="AC6" s="236">
+        <v>5</v>
+      </c>
+      <c r="AD6" s="243">
+        <v>6</v>
+      </c>
+      <c r="AE6" s="250">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="257">
+        <v>3</v>
+      </c>
+      <c r="AG6" s="264">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="271">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="278">
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="285">
+        <v>5</v>
+      </c>
+      <c r="AK6" s="292">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="50">
-        <v>7</v>
-      </c>
-      <c r="C7" s="57">
-        <v>4</v>
-      </c>
-      <c r="D7" s="64">
-        <v>6</v>
-      </c>
-      <c r="E7" s="71">
-        <v>5</v>
-      </c>
-      <c r="F7" s="78">
-        <v>3</v>
-      </c>
-      <c r="G7" s="85">
-        <v>6</v>
-      </c>
-      <c r="H7" s="92">
-        <v>7</v>
-      </c>
-      <c r="I7" s="99">
-        <v>5</v>
-      </c>
-      <c r="J7" s="106">
-        <v>2</v>
-      </c>
-      <c r="K7" s="113">
-        <v>4</v>
-      </c>
-      <c r="L7" s="120">
-        <v>4</v>
-      </c>
-      <c r="M7" s="127">
-        <v>4</v>
-      </c>
-      <c r="N7" s="134">
-        <v>6</v>
-      </c>
-      <c r="O7" s="141">
-        <v>1</v>
-      </c>
-      <c r="P7" s="148">
-        <v>7</v>
-      </c>
-      <c r="Q7" s="155">
-        <v>6</v>
-      </c>
-      <c r="R7" s="162">
-        <v>5</v>
-      </c>
-      <c r="S7" s="169">
-        <v>6</v>
-      </c>
-      <c r="T7" s="176">
-        <v>4</v>
-      </c>
-      <c r="U7" s="183">
-        <v>5</v>
-      </c>
-      <c r="V7" s="190">
-        <v>7</v>
-      </c>
-      <c r="W7" s="197">
-        <v>3</v>
-      </c>
-      <c r="X7" s="204">
-        <v>2</v>
-      </c>
-      <c r="Y7" s="211">
-        <v>6</v>
-      </c>
-      <c r="Z7" s="218">
-        <v>3</v>
-      </c>
-      <c r="AA7" s="225">
-        <v>6</v>
-      </c>
-      <c r="AB7" s="232">
-        <v>7</v>
-      </c>
-      <c r="AC7" s="239">
-        <v>4</v>
-      </c>
-      <c r="AD7" s="246">
-        <v>4</v>
-      </c>
-      <c r="AE7" s="253">
-        <v>4</v>
-      </c>
-      <c r="AF7" s="260">
-        <v>4</v>
-      </c>
-      <c r="AG7" s="267">
-        <v>5</v>
-      </c>
-      <c r="AH7" s="274">
-        <v>3</v>
-      </c>
-      <c r="AI7" s="281">
-        <v>4</v>
-      </c>
-      <c r="AJ7" s="288">
-        <v>4</v>
-      </c>
-      <c r="AK7" s="295">
+      <c r="B7" s="48">
+        <v>7</v>
+      </c>
+      <c r="C7" s="55">
+        <v>4</v>
+      </c>
+      <c r="D7" s="62">
+        <v>6</v>
+      </c>
+      <c r="E7" s="69">
+        <v>5</v>
+      </c>
+      <c r="F7" s="76">
+        <v>3</v>
+      </c>
+      <c r="G7" s="83">
+        <v>6</v>
+      </c>
+      <c r="H7" s="90">
+        <v>7</v>
+      </c>
+      <c r="I7" s="97">
+        <v>5</v>
+      </c>
+      <c r="J7" s="104">
+        <v>2</v>
+      </c>
+      <c r="K7" s="111">
+        <v>4</v>
+      </c>
+      <c r="L7" s="118">
+        <v>4</v>
+      </c>
+      <c r="M7" s="125">
+        <v>4</v>
+      </c>
+      <c r="N7" s="132">
+        <v>6</v>
+      </c>
+      <c r="O7" s="139">
+        <v>1</v>
+      </c>
+      <c r="P7" s="146">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="153">
+        <v>6</v>
+      </c>
+      <c r="R7" s="160">
+        <v>5</v>
+      </c>
+      <c r="S7" s="167">
+        <v>6</v>
+      </c>
+      <c r="T7" s="174">
+        <v>4</v>
+      </c>
+      <c r="U7" s="181">
+        <v>5</v>
+      </c>
+      <c r="V7" s="188">
+        <v>7</v>
+      </c>
+      <c r="W7" s="195">
+        <v>3</v>
+      </c>
+      <c r="X7" s="202">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="209">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="216">
+        <v>3</v>
+      </c>
+      <c r="AA7" s="223">
+        <v>6</v>
+      </c>
+      <c r="AB7" s="230">
+        <v>7</v>
+      </c>
+      <c r="AC7" s="237">
+        <v>4</v>
+      </c>
+      <c r="AD7" s="244">
+        <v>4</v>
+      </c>
+      <c r="AE7" s="251">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="258">
+        <v>4</v>
+      </c>
+      <c r="AG7" s="265">
+        <v>5</v>
+      </c>
+      <c r="AH7" s="272">
+        <v>3</v>
+      </c>
+      <c r="AI7" s="279">
+        <v>4</v>
+      </c>
+      <c r="AJ7" s="286">
+        <v>4</v>
+      </c>
+      <c r="AK7" s="293">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="51">
-        <v>4</v>
-      </c>
-      <c r="C8" s="58">
-        <v>3</v>
-      </c>
-      <c r="D8" s="65">
-        <v>3</v>
-      </c>
-      <c r="E8" s="72">
-        <v>3</v>
-      </c>
-      <c r="F8" s="79">
-        <v>6</v>
-      </c>
-      <c r="G8" s="86">
-        <v>5</v>
-      </c>
-      <c r="H8" s="93">
-        <v>3</v>
-      </c>
-      <c r="I8" s="100">
-        <v>4</v>
-      </c>
-      <c r="J8" s="107">
-        <v>3</v>
-      </c>
-      <c r="K8" s="114">
-        <v>2</v>
-      </c>
-      <c r="L8" s="121">
-        <v>5</v>
-      </c>
-      <c r="M8" s="128">
-        <v>5</v>
-      </c>
-      <c r="N8" s="135">
-        <v>4</v>
-      </c>
-      <c r="O8" s="142">
-        <v>4</v>
-      </c>
-      <c r="P8" s="149">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="156">
-        <v>3</v>
-      </c>
-      <c r="R8" s="163">
-        <v>2</v>
-      </c>
-      <c r="S8" s="170">
-        <v>5</v>
-      </c>
-      <c r="T8" s="177">
-        <v>2</v>
-      </c>
-      <c r="U8" s="184">
-        <v>2</v>
-      </c>
-      <c r="V8" s="191">
-        <v>4</v>
-      </c>
-      <c r="W8" s="198">
-        <v>4</v>
-      </c>
-      <c r="X8" s="205">
-        <v>5</v>
-      </c>
-      <c r="Y8" s="212">
-        <v>5</v>
-      </c>
-      <c r="Z8" s="219">
-        <v>2</v>
-      </c>
-      <c r="AA8" s="226">
-        <v>4</v>
-      </c>
-      <c r="AB8" s="233">
-        <v>4</v>
-      </c>
-      <c r="AC8" s="240">
-        <v>3</v>
-      </c>
-      <c r="AD8" s="247">
-        <v>3</v>
-      </c>
-      <c r="AE8" s="254">
-        <v>2</v>
-      </c>
-      <c r="AF8" s="261">
-        <v>5</v>
-      </c>
-      <c r="AG8" s="268">
-        <v>3</v>
-      </c>
-      <c r="AH8" s="275">
-        <v>4</v>
-      </c>
-      <c r="AI8" s="282">
-        <v>6</v>
-      </c>
-      <c r="AJ8" s="289">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="296">
+      <c r="B8" s="49">
+        <v>4</v>
+      </c>
+      <c r="C8" s="56">
+        <v>3</v>
+      </c>
+      <c r="D8" s="63">
+        <v>3</v>
+      </c>
+      <c r="E8" s="70">
+        <v>3</v>
+      </c>
+      <c r="F8" s="77">
+        <v>6</v>
+      </c>
+      <c r="G8" s="84">
+        <v>5</v>
+      </c>
+      <c r="H8" s="91">
+        <v>3</v>
+      </c>
+      <c r="I8" s="98">
+        <v>4</v>
+      </c>
+      <c r="J8" s="105">
+        <v>3</v>
+      </c>
+      <c r="K8" s="112">
+        <v>2</v>
+      </c>
+      <c r="L8" s="119">
+        <v>5</v>
+      </c>
+      <c r="M8" s="126">
+        <v>5</v>
+      </c>
+      <c r="N8" s="133">
+        <v>4</v>
+      </c>
+      <c r="O8" s="140">
+        <v>4</v>
+      </c>
+      <c r="P8" s="147">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="154">
+        <v>3</v>
+      </c>
+      <c r="R8" s="161">
+        <v>2</v>
+      </c>
+      <c r="S8" s="168">
+        <v>5</v>
+      </c>
+      <c r="T8" s="175">
+        <v>2</v>
+      </c>
+      <c r="U8" s="182">
+        <v>2</v>
+      </c>
+      <c r="V8" s="189">
+        <v>4</v>
+      </c>
+      <c r="W8" s="196">
+        <v>4</v>
+      </c>
+      <c r="X8" s="203">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="210">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="217">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="224">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="231">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="238">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="245">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="252">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="259">
+        <v>5</v>
+      </c>
+      <c r="AG8" s="266">
+        <v>3</v>
+      </c>
+      <c r="AH8" s="273">
+        <v>4</v>
+      </c>
+      <c r="AI8" s="280">
+        <v>6</v>
+      </c>
+      <c r="AJ8" s="287">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="294">
         <v>4</v>
       </c>
     </row>
